--- a/experiment/example_plate_map.xlsx
+++ b/experiment/example_plate_map.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20376"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kieran\Documents\MATLAB\Optoplate-96\experiment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ksweeney2\Microscopy\20210802_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9301C3-8CCE-4F94-8806-75471E3B01DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{074EE95E-0AA5-4356-9FD1-25A993585B91}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73D135FC-C9A2-4121-A0A6-916E25C0EDFA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{73D135FC-C9A2-4121-A0A6-916E25C0EDFA}"/>
   </bookViews>
   <sheets>
     <sheet name="optoplate_config" sheetId="3" r:id="rId1"/>
+    <sheet name="plate_map" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="51">
   <si>
     <t>A</t>
   </si>
@@ -49,6 +50,51 @@
   </si>
   <si>
     <t>H</t>
+  </si>
+  <si>
+    <t>map_strain</t>
+  </si>
+  <si>
+    <t>map_plasmid</t>
+  </si>
+  <si>
+    <t>pMM0859</t>
+  </si>
+  <si>
+    <t>pMM0860</t>
+  </si>
+  <si>
+    <t>pMM0846</t>
+  </si>
+  <si>
+    <t>pMM0847</t>
+  </si>
+  <si>
+    <t>map_Msn2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Msn2(WT|4E|A) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Msn2(WT|4E|WT) </t>
+  </si>
+  <si>
+    <t>map_CLASP</t>
+  </si>
+  <si>
+    <t>CLASP</t>
+  </si>
+  <si>
+    <t>dCLASP</t>
+  </si>
+  <si>
+    <t>map_reporter</t>
+  </si>
+  <si>
+    <t>map_condition</t>
+  </si>
+  <si>
+    <t>map_replicate</t>
   </si>
   <si>
     <t>LED1_amplitudes</t>
@@ -112,6 +158,27 @@
   </si>
   <si>
     <t>LED3_subpulse_low_times</t>
+  </si>
+  <si>
+    <t>map_source</t>
+  </si>
+  <si>
+    <t>pHXK1</t>
+  </si>
+  <si>
+    <t>MCRC2</t>
+  </si>
+  <si>
+    <t>MCRC4</t>
+  </si>
+  <si>
+    <t>pRTN2</t>
+  </si>
+  <si>
+    <t>yMM1625</t>
+  </si>
+  <si>
+    <t>yMM1604</t>
   </si>
 </sst>
 </file>
@@ -484,16 +551,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BDAF6B5-7E6A-4C9D-B06F-CA91879041C8}">
   <dimension ref="A1:AO69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30.7109375" style="2" customWidth="1"/>
-    <col min="2" max="6" width="8.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="2" customWidth="1"/>
-    <col min="8" max="13" width="8.7109375" style="2" customWidth="1"/>
+    <col min="2" max="13" width="8.7109375" style="2" customWidth="1"/>
     <col min="14" max="14" width="9.140625" style="2"/>
     <col min="15" max="15" width="30.7109375" style="2" customWidth="1"/>
     <col min="16" max="27" width="8.7109375" style="2" customWidth="1"/>
@@ -505,7 +570,7 @@
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1">
         <v>1</v>
@@ -544,7 +609,7 @@
         <v>12</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="P1" s="1">
         <v>1</v>
@@ -583,7 +648,7 @@
         <v>12</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AD1" s="1">
         <v>1</v>
@@ -630,25 +695,25 @@
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="F2" s="2">
         <v>0</v>
       </c>
       <c r="G2" s="2">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
       </c>
       <c r="I2" s="2">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="J2" s="2">
         <v>0</v>
@@ -674,28 +739,28 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="D3" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="F3" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="H3" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I3" s="2">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="J3" s="2">
         <v>0</v>
@@ -721,28 +786,28 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="D4" s="2">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E4" s="2">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="F4" s="2">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="H4" s="2">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2">
         <v>0</v>
@@ -768,28 +833,28 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="C5" s="2">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="D5" s="2">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="E5" s="2">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="F5" s="2">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="G5" s="2">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="H5" s="2">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="I5" s="2">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="J5" s="2">
         <v>0</v>
@@ -815,28 +880,28 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="C6" s="2">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="D6" s="2">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="E6" s="2">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="F6" s="2">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="G6" s="2">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="H6" s="2">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2">
         <v>0</v>
@@ -862,28 +927,28 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="C7" s="2">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="D7" s="2">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="E7" s="2">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="F7" s="2">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="G7" s="2">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="H7" s="2">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="I7" s="2">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="J7" s="2">
         <v>0</v>
@@ -909,28 +974,28 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="C8" s="2">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="D8" s="2">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="E8" s="2">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="F8" s="2">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="G8" s="2">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="H8" s="2">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="I8" s="2">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="J8" s="2">
         <v>0</v>
@@ -956,25 +1021,25 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="C9" s="2">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="D9" s="2">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
       </c>
       <c r="F9" s="2">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="G9" s="2">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="H9" s="2">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="I9" s="2">
         <v>0</v>
@@ -1000,7 +1065,7 @@
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -1039,7 +1104,7 @@
         <v>12</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="P11" s="1">
         <v>1</v>
@@ -1078,7 +1143,7 @@
         <v>12</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="AD11" s="1">
         <v>1</v>
@@ -1122,28 +1187,28 @@
         <v>0</v>
       </c>
       <c r="B12" s="2">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="C12" s="2">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E12" s="2">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F12" s="2">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G12" s="2">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="H12" s="2">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="I12" s="2">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="J12" s="2">
         <v>0</v>
@@ -1169,28 +1234,28 @@
         <v>1</v>
       </c>
       <c r="B13" s="2">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="C13" s="2">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="D13" s="2">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E13" s="2">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F13" s="2">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G13" s="2">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="H13" s="2">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="I13" s="2">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="J13" s="2">
         <v>0</v>
@@ -1216,28 +1281,28 @@
         <v>2</v>
       </c>
       <c r="B14" s="2">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="C14" s="2">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="D14" s="2">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E14" s="2">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F14" s="2">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G14" s="2">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="H14" s="2">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="I14" s="2">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="J14" s="2">
         <v>0</v>
@@ -1263,28 +1328,28 @@
         <v>3</v>
       </c>
       <c r="B15" s="2">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="C15" s="2">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="D15" s="2">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E15" s="2">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F15" s="2">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G15" s="2">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="H15" s="2">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="I15" s="2">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="J15" s="2">
         <v>0</v>
@@ -1310,28 +1375,28 @@
         <v>4</v>
       </c>
       <c r="B16" s="2">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="C16" s="2">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="D16" s="2">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E16" s="2">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F16" s="2">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G16" s="2">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="H16" s="2">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="I16" s="2">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="J16" s="2">
         <v>0</v>
@@ -1357,28 +1422,28 @@
         <v>5</v>
       </c>
       <c r="B17" s="2">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="C17" s="2">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="D17" s="2">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E17" s="2">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F17" s="2">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G17" s="2">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="H17" s="2">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="I17" s="2">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="J17" s="2">
         <v>0</v>
@@ -1404,28 +1469,28 @@
         <v>6</v>
       </c>
       <c r="B18" s="2">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="C18" s="2">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="D18" s="2">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E18" s="2">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F18" s="2">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G18" s="2">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="H18" s="2">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="I18" s="2">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="J18" s="2">
         <v>0</v>
@@ -1451,28 +1516,28 @@
         <v>7</v>
       </c>
       <c r="B19" s="2">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="C19" s="2">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="D19" s="2">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E19" s="2">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F19" s="2">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G19" s="2">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="H19" s="2">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="I19" s="2">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="J19" s="2">
         <v>0</v>
@@ -1495,7 +1560,7 @@
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
@@ -1534,7 +1599,7 @@
         <v>12</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="P21" s="1">
         <v>1</v>
@@ -1573,7 +1638,7 @@
         <v>12</v>
       </c>
       <c r="AC21" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="AD21" s="1">
         <v>1</v>
@@ -1617,28 +1682,28 @@
         <v>0</v>
       </c>
       <c r="B22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" s="2">
         <v>0</v>
@@ -1664,28 +1729,28 @@
         <v>1</v>
       </c>
       <c r="B23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" s="2">
         <v>0</v>
@@ -1711,28 +1776,28 @@
         <v>2</v>
       </c>
       <c r="B24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" s="2">
         <v>0</v>
@@ -1758,28 +1823,28 @@
         <v>3</v>
       </c>
       <c r="B25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" s="2">
         <v>0</v>
@@ -1805,28 +1870,28 @@
         <v>4</v>
       </c>
       <c r="B26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J26" s="2">
         <v>0</v>
@@ -1852,28 +1917,28 @@
         <v>5</v>
       </c>
       <c r="B27" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C27" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D27" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E27" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F27" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G27" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H27" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I27" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27" s="2">
         <v>0</v>
@@ -1899,28 +1964,28 @@
         <v>6</v>
       </c>
       <c r="B28" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C28" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D28" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E28" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F28" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G28" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H28" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I28" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J28" s="2">
         <v>0</v>
@@ -1946,28 +2011,28 @@
         <v>7</v>
       </c>
       <c r="B29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" s="2">
         <v>0</v>
@@ -1990,7 +2055,7 @@
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B31" s="1">
         <v>1</v>
@@ -2029,7 +2094,7 @@
         <v>12</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="P31" s="1">
         <v>1</v>
@@ -2068,7 +2133,7 @@
         <v>12</v>
       </c>
       <c r="AC31" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AD31" s="1">
         <v>1</v>
@@ -2115,25 +2180,25 @@
         <v>0</v>
       </c>
       <c r="C32" s="2">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="D32" s="2">
         <v>0</v>
       </c>
       <c r="E32" s="2">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F32" s="2">
         <v>0</v>
       </c>
       <c r="G32" s="2">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="H32" s="2">
         <v>0</v>
       </c>
       <c r="I32" s="2">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="J32" s="2">
         <v>0</v>
@@ -2159,28 +2224,28 @@
         <v>1</v>
       </c>
       <c r="B33" s="2">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="C33" s="2">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="D33" s="2">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="E33" s="2">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="F33" s="2">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G33" s="2">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="H33" s="2">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="I33" s="2">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="J33" s="2">
         <v>0</v>
@@ -2206,28 +2271,28 @@
         <v>2</v>
       </c>
       <c r="B34" s="2">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="C34" s="2">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="D34" s="2">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="E34" s="2">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="F34" s="2">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G34" s="2">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="H34" s="2">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="I34" s="2">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="J34" s="2">
         <v>0</v>
@@ -2253,28 +2318,28 @@
         <v>3</v>
       </c>
       <c r="B35" s="2">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="C35" s="2">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="D35" s="2">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="E35" s="2">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="F35" s="2">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G35" s="2">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="H35" s="2">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="I35" s="2">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="J35" s="2">
         <v>0</v>
@@ -2300,28 +2365,28 @@
         <v>4</v>
       </c>
       <c r="B36" s="2">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="C36" s="2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="D36" s="2">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="E36" s="2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F36" s="2">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G36" s="2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H36" s="2">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="I36" s="2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J36" s="2">
         <v>0</v>
@@ -2347,28 +2412,28 @@
         <v>5</v>
       </c>
       <c r="B37" s="2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="C37" s="2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="D37" s="2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E37" s="2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F37" s="2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G37" s="2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H37" s="2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I37" s="2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J37" s="2">
         <v>0</v>
@@ -2394,28 +2459,28 @@
         <v>6</v>
       </c>
       <c r="B38" s="2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="C38" s="2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="D38" s="2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E38" s="2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F38" s="2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G38" s="2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H38" s="2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I38" s="2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J38" s="2">
         <v>0</v>
@@ -2441,28 +2506,28 @@
         <v>7</v>
       </c>
       <c r="B39" s="2">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="C39" s="2">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="D39" s="2">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="E39" s="2">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="F39" s="2">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G39" s="2">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="H39" s="2">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="I39" s="2">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="J39" s="2">
         <v>0</v>
@@ -2485,7 +2550,7 @@
     </row>
     <row r="41" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B41" s="1">
         <v>1</v>
@@ -2524,7 +2589,7 @@
         <v>12</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="P41" s="1">
         <v>1</v>
@@ -2563,7 +2628,7 @@
         <v>12</v>
       </c>
       <c r="AC41" s="1" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="AD41" s="1">
         <v>1</v>
@@ -2798,25 +2863,25 @@
         <v>0</v>
       </c>
       <c r="C46" s="2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="D46" s="2">
         <v>0</v>
       </c>
       <c r="E46" s="2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F46" s="2">
         <v>0</v>
       </c>
       <c r="G46" s="2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H46" s="2">
         <v>0</v>
       </c>
       <c r="I46" s="2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J46" s="2">
         <v>0</v>
@@ -2842,28 +2907,28 @@
         <v>5</v>
       </c>
       <c r="B47" s="2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="C47" s="2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="D47" s="2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E47" s="2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F47" s="2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G47" s="2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H47" s="2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I47" s="2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J47" s="2">
         <v>0</v>
@@ -2889,28 +2954,28 @@
         <v>6</v>
       </c>
       <c r="B48" s="2">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="C48" s="2">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="D48" s="2">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E48" s="2">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="F48" s="2">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G48" s="2">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="H48" s="2">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="I48" s="2">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="J48" s="2">
         <v>0</v>
@@ -2980,7 +3045,7 @@
     </row>
     <row r="51" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B51" s="1">
         <v>1</v>
@@ -3019,7 +3084,7 @@
         <v>12</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="P51" s="1">
         <v>1</v>
@@ -3058,7 +3123,7 @@
         <v>12</v>
       </c>
       <c r="AC51" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="AD51" s="1">
         <v>1</v>
@@ -3102,28 +3167,28 @@
         <v>0</v>
       </c>
       <c r="B52" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C52" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D52" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E52" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F52" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G52" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H52" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J52" s="2">
         <v>0</v>
@@ -3149,28 +3214,28 @@
         <v>1</v>
       </c>
       <c r="B53" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C53" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D53" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E53" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F53" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G53" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H53" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J53" s="2">
         <v>0</v>
@@ -3196,28 +3261,28 @@
         <v>2</v>
       </c>
       <c r="B54" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C54" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D54" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E54" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F54" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G54" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H54" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J54" s="2">
         <v>0</v>
@@ -3243,28 +3308,28 @@
         <v>3</v>
       </c>
       <c r="B55" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C55" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D55" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E55" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F55" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G55" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H55" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J55" s="2">
         <v>0</v>
@@ -3290,28 +3355,28 @@
         <v>4</v>
       </c>
       <c r="B56" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C56" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D56" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E56" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F56" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G56" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H56" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J56" s="2">
         <v>0</v>
@@ -3337,28 +3402,28 @@
         <v>5</v>
       </c>
       <c r="B57" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C57" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D57" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E57" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F57" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G57" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H57" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J57" s="2">
         <v>0</v>
@@ -3384,28 +3449,28 @@
         <v>6</v>
       </c>
       <c r="B58" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C58" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D58" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E58" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F58" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G58" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H58" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J58" s="2">
         <v>0</v>
@@ -3431,28 +3496,28 @@
         <v>7</v>
       </c>
       <c r="B59" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C59" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D59" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E59" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F59" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G59" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H59" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J59" s="2">
         <v>0</v>
@@ -3475,7 +3540,7 @@
     </row>
     <row r="61" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B61" s="1">
         <v>1</v>
@@ -3514,7 +3579,7 @@
         <v>12</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="P61" s="1">
         <v>1</v>
@@ -3553,7 +3618,7 @@
         <v>12</v>
       </c>
       <c r="AC61" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="AD61" s="1">
         <v>1</v>
@@ -3597,28 +3662,28 @@
         <v>0</v>
       </c>
       <c r="B62" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" s="2">
         <v>0</v>
@@ -3644,28 +3709,28 @@
         <v>1</v>
       </c>
       <c r="B63" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" s="2">
         <v>0</v>
@@ -3691,28 +3756,28 @@
         <v>2</v>
       </c>
       <c r="B64" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" s="2">
         <v>0</v>
@@ -3738,28 +3803,28 @@
         <v>3</v>
       </c>
       <c r="B65" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" s="2">
         <v>0</v>
@@ -3785,28 +3850,28 @@
         <v>4</v>
       </c>
       <c r="B66" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D66" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G66" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" s="2">
         <v>0</v>
@@ -3832,28 +3897,28 @@
         <v>5</v>
       </c>
       <c r="B67" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" s="2">
         <v>0</v>
@@ -3879,28 +3944,28 @@
         <v>6</v>
       </c>
       <c r="B68" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" s="2">
         <v>0</v>
@@ -3926,28 +3991,28 @@
         <v>7</v>
       </c>
       <c r="B69" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" s="2">
         <v>0</v>
@@ -3971,4 +4036,1444 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20E3073B-65D6-4628-9E65-E92A845B2B7A}">
+  <dimension ref="A1:M80"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15" style="2" customWidth="1"/>
+    <col min="2" max="13" width="16.7109375" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1">
+        <v>6</v>
+      </c>
+      <c r="H11" s="1">
+        <v>7</v>
+      </c>
+      <c r="I11" s="1">
+        <v>8</v>
+      </c>
+      <c r="J11" s="1">
+        <v>9</v>
+      </c>
+      <c r="K11" s="1">
+        <v>10</v>
+      </c>
+      <c r="L11" s="1">
+        <v>11</v>
+      </c>
+      <c r="M11" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1">
+        <v>4</v>
+      </c>
+      <c r="F21" s="1">
+        <v>5</v>
+      </c>
+      <c r="G21" s="1">
+        <v>6</v>
+      </c>
+      <c r="H21" s="1">
+        <v>7</v>
+      </c>
+      <c r="I21" s="1">
+        <v>8</v>
+      </c>
+      <c r="J21" s="1">
+        <v>9</v>
+      </c>
+      <c r="K21" s="1">
+        <v>10</v>
+      </c>
+      <c r="L21" s="1">
+        <v>11</v>
+      </c>
+      <c r="M21" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1">
+        <v>3</v>
+      </c>
+      <c r="E31" s="1">
+        <v>4</v>
+      </c>
+      <c r="F31" s="1">
+        <v>5</v>
+      </c>
+      <c r="G31" s="1">
+        <v>6</v>
+      </c>
+      <c r="H31" s="1">
+        <v>7</v>
+      </c>
+      <c r="I31" s="1">
+        <v>8</v>
+      </c>
+      <c r="J31" s="1">
+        <v>9</v>
+      </c>
+      <c r="K31" s="1">
+        <v>10</v>
+      </c>
+      <c r="L31" s="1">
+        <v>11</v>
+      </c>
+      <c r="M31" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2</v>
+      </c>
+      <c r="D41" s="1">
+        <v>3</v>
+      </c>
+      <c r="E41" s="1">
+        <v>4</v>
+      </c>
+      <c r="F41" s="1">
+        <v>5</v>
+      </c>
+      <c r="G41" s="1">
+        <v>6</v>
+      </c>
+      <c r="H41" s="1">
+        <v>7</v>
+      </c>
+      <c r="I41" s="1">
+        <v>8</v>
+      </c>
+      <c r="J41" s="1">
+        <v>9</v>
+      </c>
+      <c r="K41" s="1">
+        <v>10</v>
+      </c>
+      <c r="L41" s="1">
+        <v>11</v>
+      </c>
+      <c r="M41" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1</v>
+      </c>
+      <c r="C51" s="1">
+        <v>2</v>
+      </c>
+      <c r="D51" s="1">
+        <v>3</v>
+      </c>
+      <c r="E51" s="1">
+        <v>4</v>
+      </c>
+      <c r="F51" s="1">
+        <v>5</v>
+      </c>
+      <c r="G51" s="1">
+        <v>6</v>
+      </c>
+      <c r="H51" s="1">
+        <v>7</v>
+      </c>
+      <c r="I51" s="1">
+        <v>8</v>
+      </c>
+      <c r="J51" s="1">
+        <v>9</v>
+      </c>
+      <c r="K51" s="1">
+        <v>10</v>
+      </c>
+      <c r="L51" s="1">
+        <v>11</v>
+      </c>
+      <c r="M51" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" s="1">
+        <v>1</v>
+      </c>
+      <c r="C61" s="1">
+        <v>2</v>
+      </c>
+      <c r="D61" s="1">
+        <v>3</v>
+      </c>
+      <c r="E61" s="1">
+        <v>4</v>
+      </c>
+      <c r="F61" s="1">
+        <v>5</v>
+      </c>
+      <c r="G61" s="1">
+        <v>6</v>
+      </c>
+      <c r="H61" s="1">
+        <v>7</v>
+      </c>
+      <c r="I61" s="1">
+        <v>8</v>
+      </c>
+      <c r="J61" s="1">
+        <v>9</v>
+      </c>
+      <c r="K61" s="1">
+        <v>10</v>
+      </c>
+      <c r="L61" s="1">
+        <v>11</v>
+      </c>
+      <c r="M61" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="2">
+        <v>1</v>
+      </c>
+      <c r="C62" s="2">
+        <v>2</v>
+      </c>
+      <c r="D62" s="2">
+        <v>1</v>
+      </c>
+      <c r="E62" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="2">
+        <v>3</v>
+      </c>
+      <c r="C63" s="2">
+        <v>4</v>
+      </c>
+      <c r="D63" s="2">
+        <v>3</v>
+      </c>
+      <c r="E63" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" s="2">
+        <v>5</v>
+      </c>
+      <c r="C64" s="2">
+        <v>6</v>
+      </c>
+      <c r="D64" s="2">
+        <v>5</v>
+      </c>
+      <c r="E64" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" s="2">
+        <v>7</v>
+      </c>
+      <c r="C65" s="2">
+        <v>8</v>
+      </c>
+      <c r="D65" s="2">
+        <v>7</v>
+      </c>
+      <c r="E65" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" s="2">
+        <v>9</v>
+      </c>
+      <c r="C66" s="2">
+        <v>10</v>
+      </c>
+      <c r="D66" s="2">
+        <v>9</v>
+      </c>
+      <c r="E66" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" s="2">
+        <v>11</v>
+      </c>
+      <c r="C67" s="2">
+        <v>12</v>
+      </c>
+      <c r="D67" s="2">
+        <v>11</v>
+      </c>
+      <c r="E67" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" s="2">
+        <v>13</v>
+      </c>
+      <c r="C68" s="2">
+        <v>14</v>
+      </c>
+      <c r="D68" s="2">
+        <v>13</v>
+      </c>
+      <c r="E68" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="2">
+        <v>15</v>
+      </c>
+      <c r="C69" s="2">
+        <v>16</v>
+      </c>
+      <c r="D69" s="2">
+        <v>15</v>
+      </c>
+      <c r="E69" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B72" s="1">
+        <v>1</v>
+      </c>
+      <c r="C72" s="1">
+        <v>2</v>
+      </c>
+      <c r="D72" s="1">
+        <v>3</v>
+      </c>
+      <c r="E72" s="1">
+        <v>4</v>
+      </c>
+      <c r="F72" s="1">
+        <v>5</v>
+      </c>
+      <c r="G72" s="1">
+        <v>6</v>
+      </c>
+      <c r="H72" s="1">
+        <v>7</v>
+      </c>
+      <c r="I72" s="1">
+        <v>8</v>
+      </c>
+      <c r="J72" s="1">
+        <v>9</v>
+      </c>
+      <c r="K72" s="1">
+        <v>10</v>
+      </c>
+      <c r="L72" s="1">
+        <v>11</v>
+      </c>
+      <c r="M72" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="2">
+        <v>1</v>
+      </c>
+      <c r="C73" s="2">
+        <v>1</v>
+      </c>
+      <c r="D73" s="2">
+        <v>1</v>
+      </c>
+      <c r="E73" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74" s="2">
+        <v>1</v>
+      </c>
+      <c r="C74" s="2">
+        <v>1</v>
+      </c>
+      <c r="D74" s="2">
+        <v>1</v>
+      </c>
+      <c r="E74" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B75" s="2">
+        <v>1</v>
+      </c>
+      <c r="C75" s="2">
+        <v>1</v>
+      </c>
+      <c r="D75" s="2">
+        <v>1</v>
+      </c>
+      <c r="E75" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76" s="2">
+        <v>1</v>
+      </c>
+      <c r="C76" s="2">
+        <v>1</v>
+      </c>
+      <c r="D76" s="2">
+        <v>1</v>
+      </c>
+      <c r="E76" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" s="2">
+        <v>1</v>
+      </c>
+      <c r="C77" s="2">
+        <v>1</v>
+      </c>
+      <c r="D77" s="2">
+        <v>1</v>
+      </c>
+      <c r="E77" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" s="2">
+        <v>1</v>
+      </c>
+      <c r="C78" s="2">
+        <v>1</v>
+      </c>
+      <c r="D78" s="2">
+        <v>1</v>
+      </c>
+      <c r="E78" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" s="2">
+        <v>1</v>
+      </c>
+      <c r="C79" s="2">
+        <v>1</v>
+      </c>
+      <c r="D79" s="2">
+        <v>1</v>
+      </c>
+      <c r="E79" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80" s="2">
+        <v>1</v>
+      </c>
+      <c r="C80" s="2">
+        <v>0</v>
+      </c>
+      <c r="D80" s="2">
+        <v>1</v>
+      </c>
+      <c r="E80" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>